--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.685899999999991</v>
+        <v>-6.675199999999989</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.081999999999988</v>
+        <v>5.850199999999988</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.447899999999992</v>
+        <v>-8.519099999999991</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.951100000000004</v>
+        <v>8.975800000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.917999999999993</v>
+        <v>5.640999999999996</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.738799999999998</v>
+        <v>5.816099999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.851299999999993</v>
+        <v>5.870099999999993</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
